--- a/Opollo/src/test/data/Shopee/U2C.xlsx
+++ b/Opollo/src/test/data/Shopee/U2C.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Người Bán</t>
   </si>
@@ -32,10 +32,10 @@
     <t>unicharmvnstore</t>
   </si>
   <si>
-    <t>2023-10-01</t>
-  </si>
-  <si>
-    <t>2023-10-31</t>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
   </si>
   <si>
     <t>Chi tiết số tiền hoàn lại</t>
@@ -134,154 +134,196 @@
     <t>Shopee voucher</t>
   </si>
   <si>
-    <t>230929M1YX1PWE</t>
-  </si>
-  <si>
-    <t>vohoangchau265</t>
+    <t>230909UQT6HAUV</t>
+  </si>
+  <si>
+    <t>nhung20692</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
+  </si>
+  <si>
+    <t>Tài khoản ngân hàng đã liên kết Ví ShopeePay</t>
+  </si>
+  <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>UNICT9BAU</t>
+  </si>
+  <si>
+    <t>Nhanh</t>
+  </si>
+  <si>
+    <t>SPX Express</t>
+  </si>
+  <si>
+    <t>2309113QKKFRNU</t>
+  </si>
+  <si>
+    <t>baongoc160303</t>
+  </si>
+  <si>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t>Ví ShopeePay</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2309100Q041A83</t>
+  </si>
+  <si>
+    <t>longlt_2009</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2309125NKV31FB</t>
+  </si>
+  <si>
+    <t>2023-09-12</t>
+  </si>
+  <si>
+    <t>230915C031M3P0</t>
+  </si>
+  <si>
+    <t>phamhanh0309</t>
+  </si>
+  <si>
+    <t>2023-09-17</t>
+  </si>
+  <si>
+    <t>2309113DEKMYX8</t>
+  </si>
+  <si>
+    <t>kimdinh1992</t>
+  </si>
+  <si>
+    <t>Thanh toán khi nhận hàng</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>230918MDJMV6E1</t>
+  </si>
+  <si>
+    <t>a38bpwskgy</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>230916FPVUX32X</t>
+  </si>
+  <si>
+    <t>Giao Hàng Nhanh</t>
+  </si>
+  <si>
+    <t>230915CGV4SY4M</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>230919QWM3GTED</t>
+  </si>
+  <si>
+    <t>nthnhung306</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>230918NJCSF7PB</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>230920S50PYE21</t>
+  </si>
+  <si>
+    <t>luuthihongphuong1304</t>
+  </si>
+  <si>
+    <t>230921VD499ATE</t>
+  </si>
+  <si>
+    <t>phuongmickey34</t>
+  </si>
+  <si>
+    <t>230921U0YP1P9Y</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>230920SU3VPPPT</t>
+  </si>
+  <si>
+    <t>hhmner5tip</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2309221K6SSKA3</t>
+  </si>
+  <si>
+    <t>benkutepham</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>230926AFMW7W47</t>
+  </si>
+  <si>
+    <t>summyha.nguyen</t>
+  </si>
+  <si>
+    <t>Thẻ Tín dụng/Ghi nợ</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2309232XNRNH6G</t>
+  </si>
+  <si>
+    <t>phuong273089</t>
+  </si>
+  <si>
+    <t>2023-09-23</t>
+  </si>
+  <si>
+    <t>230927DGU4M00V</t>
+  </si>
+  <si>
+    <t>016332232..</t>
   </si>
   <si>
     <t>2023-09-29</t>
   </si>
   <si>
-    <t>Thanh toán khi nhận hàng</t>
-  </si>
-  <si>
-    <t>UNICT9BAU</t>
-  </si>
-  <si>
-    <t>Nhanh</t>
-  </si>
-  <si>
-    <t>Giao Hàng Nhanh</t>
-  </si>
-  <si>
-    <t>230928HP7HKGV4</t>
-  </si>
-  <si>
-    <t>longlt_2009</t>
-  </si>
-  <si>
-    <t>2023-09-28</t>
-  </si>
-  <si>
-    <t>Tài khoản ngân hàng đã liên kết Ví ShopeePay</t>
-  </si>
-  <si>
-    <t>2023-10-02</t>
-  </si>
-  <si>
-    <t>SPX Express</t>
-  </si>
-  <si>
-    <t>230929KBXR6KMW</t>
-  </si>
-  <si>
-    <t>Số dư TK Shopee</t>
-  </si>
-  <si>
-    <t>2023-10-03</t>
-  </si>
-  <si>
-    <t>230929M1QVJH03</t>
-  </si>
-  <si>
-    <t>tuthilien</t>
-  </si>
-  <si>
-    <t>230930P22KE4JJ</t>
-  </si>
-  <si>
-    <t>nhuquynh_3112</t>
-  </si>
-  <si>
-    <t>2023-09-30</t>
-  </si>
-  <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
-    <t>231001RYSPKW85</t>
-  </si>
-  <si>
-    <t>phuongmickey34</t>
-  </si>
-  <si>
-    <t>2310030F7XPVK3</t>
-  </si>
-  <si>
-    <t>melody.23</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>23100308NC1CSA</t>
-  </si>
-  <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>2310042TE4FECQ</t>
-  </si>
-  <si>
-    <t>2023-10-08</t>
-  </si>
-  <si>
-    <t>2310055ACAY4A6</t>
-  </si>
-  <si>
-    <t>2310043KTV5TJ2</t>
-  </si>
-  <si>
-    <t>giangleohart</t>
-  </si>
-  <si>
-    <t>2023-10-09</t>
-  </si>
-  <si>
-    <t>231009F2D9XJUX</t>
-  </si>
-  <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>231010GMM3B3VV</t>
-  </si>
-  <si>
-    <t>summyha.nguyen</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>Thẻ Tín dụng/Ghi nợ</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>231011N6QCWRD6</t>
-  </si>
-  <si>
-    <t>2023-10-17</t>
-  </si>
-  <si>
-    <t>2310177AX4T4U1</t>
-  </si>
-  <si>
-    <t>anvatnhun_nhun</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2310297DX7FUX6</t>
-  </si>
-  <si>
-    <t>minhhytieuha</t>
-  </si>
-  <si>
-    <t>2023-10-29</t>
+    <t>230929KC4VPVE2</t>
+  </si>
+  <si>
+    <t>nhunghtt.12</t>
+  </si>
+  <si>
+    <t>230925961NJA0M</t>
+  </si>
+  <si>
+    <t>lylychee</t>
   </si>
   <si>
     <t>Gói miễn phí vận chuyển XTra</t>
@@ -825,7 +867,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1174,7 +1216,7 @@
         <v>41</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H8" s="3">
         <v>142500</v>
@@ -1198,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>44100</v>
+        <v>71000</v>
       </c>
       <c r="P8" s="3">
-        <v>-44100</v>
+        <v>-71000</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -1216,13 +1258,13 @@
         <v>-8047</v>
       </c>
       <c r="U8" s="3">
-        <v>-3448</v>
+        <v>-4230</v>
       </c>
       <c r="V8" s="3">
-        <v>103455</v>
+        <v>102673</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
@@ -1231,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB8" s="3" t="s"/>
       <c r="AC8" s="3">
@@ -1252,26 +1294,26 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s"/>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="3">
-        <v>142500</v>
+        <v>285000</v>
       </c>
       <c r="I9" s="3">
-        <v>-21500</v>
+        <v>-43000</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -1280,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>-12100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -1289,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>63700</v>
+        <v>71000</v>
       </c>
       <c r="P9" s="3">
-        <v>-63700</v>
+        <v>-71000</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -1304,15 +1346,17 @@
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>-8470</v>
+        <v>-16093</v>
       </c>
       <c r="U9" s="3">
-        <v>-4040</v>
+        <v>-5996</v>
       </c>
       <c r="V9" s="3">
-        <v>108490</v>
-      </c>
-      <c r="W9" s="3" t="s"/>
+        <v>207811</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
@@ -1320,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB9" s="3" t="s"/>
       <c r="AC9" s="3">
@@ -1345,16 +1389,16 @@
       </c>
       <c r="C10" s="3" t="s"/>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3">
         <v>142500</v>
@@ -1369,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>-6050</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -1378,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>63700</v>
+        <v>57700</v>
       </c>
       <c r="P10" s="3">
-        <v>-63700</v>
+        <v>-57700</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -1393,15 +1437,17 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>-8470</v>
+        <v>-8047</v>
       </c>
       <c r="U10" s="3">
-        <v>-3630</v>
+        <v>-3782</v>
       </c>
       <c r="V10" s="3">
-        <v>108900</v>
-      </c>
-      <c r="W10" s="3" t="s"/>
+        <v>103121</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
@@ -1409,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB10" s="3" t="s"/>
       <c r="AC10" s="3">
@@ -1430,20 +1476,20 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s"/>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="3">
         <v>142500</v>
@@ -1458,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>-6050</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
@@ -1467,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>44100</v>
+        <v>57700</v>
       </c>
       <c r="P11" s="3">
-        <v>-44100</v>
+        <v>-57700</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
@@ -1482,17 +1528,15 @@
         <v>0</v>
       </c>
       <c r="T11" s="3">
-        <v>-8047</v>
+        <v>-8470</v>
       </c>
       <c r="U11" s="3">
-        <v>-3448</v>
+        <v>-3630</v>
       </c>
       <c r="V11" s="3">
-        <v>103455</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>108900</v>
+      </c>
+      <c r="W11" s="3" t="s"/>
       <c r="X11" s="3">
         <v>0</v>
       </c>
@@ -1500,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB11" s="3" t="s"/>
       <c r="AC11" s="3">
@@ -1521,26 +1565,26 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s"/>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="3">
-        <v>495900</v>
+        <v>135000</v>
       </c>
       <c r="I12" s="3">
-        <v>-136900</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1549,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>-17950</v>
+        <v>-6750</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1558,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>18300</v>
+        <v>32800</v>
       </c>
       <c r="P12" s="3">
-        <v>-18300</v>
+        <v>-32800</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1573,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>-23874</v>
+        <v>-8978</v>
       </c>
       <c r="U12" s="3">
-        <v>-12278</v>
+        <v>-4720</v>
       </c>
       <c r="V12" s="3">
-        <v>304898</v>
+        <v>114552</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
@@ -1591,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB12" s="3" t="s"/>
       <c r="AC12" s="3">
@@ -1619,19 +1663,19 @@
         <v>61</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3">
-        <v>246000</v>
+        <v>142500</v>
       </c>
       <c r="I13" s="3">
-        <v>-37000</v>
+        <v>-21500</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -1640,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
+        <v>-6050</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -1664,15 +1708,17 @@
         <v>0</v>
       </c>
       <c r="T13" s="3">
-        <v>-14630</v>
+        <v>-8047</v>
       </c>
       <c r="U13" s="3">
-        <v>-6760</v>
+        <v>-4598</v>
       </c>
       <c r="V13" s="3">
-        <v>187610</v>
-      </c>
-      <c r="W13" s="3" t="s"/>
+        <v>102305</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="X13" s="3">
         <v>0</v>
       </c>
@@ -1680,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB13" s="3" t="s"/>
       <c r="AC13" s="3">
@@ -1701,26 +1747,26 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s"/>
       <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H14" s="3">
-        <v>285000</v>
+        <v>1110300</v>
       </c>
       <c r="I14" s="3">
-        <v>-43000</v>
+        <v>-183300</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1729,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>-46350</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1738,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>71000</v>
+        <v>52400</v>
       </c>
       <c r="P14" s="3">
-        <v>-71000</v>
+        <v>-52400</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1753,15 +1799,17 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>-16940</v>
+        <v>-61646</v>
       </c>
       <c r="U14" s="3">
-        <v>-9680</v>
+        <v>-32410</v>
       </c>
       <c r="V14" s="3">
-        <v>215380</v>
-      </c>
-      <c r="W14" s="3" t="s"/>
+        <v>786594</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1769,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB14" s="3" t="s"/>
       <c r="AC14" s="3">
@@ -1790,17 +1838,17 @@
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3" t="s"/>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>66</v>
@@ -1827,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>63700</v>
+        <v>57700</v>
       </c>
       <c r="P15" s="3">
-        <v>-63700</v>
+        <v>-57700</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1858,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="AB15" s="3" t="s"/>
       <c r="AC15" s="3">
@@ -1879,20 +1927,20 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3" t="s"/>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H16" s="3">
         <v>142500</v>
@@ -1916,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <v>63700</v>
+        <v>57700</v>
       </c>
       <c r="P16" s="3">
-        <v>-63700</v>
+        <v>-57700</v>
       </c>
       <c r="Q16" s="3">
         <v>0</v>
@@ -1934,10 +1982,10 @@
         <v>-8470</v>
       </c>
       <c r="U16" s="3">
-        <v>-3630</v>
+        <v>-3840</v>
       </c>
       <c r="V16" s="3">
-        <v>108900</v>
+        <v>108690</v>
       </c>
       <c r="W16" s="3" t="s"/>
       <c r="X16" s="3">
@@ -1947,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB16" s="3" t="s"/>
       <c r="AC16" s="3">
@@ -1968,26 +2016,26 @@
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s"/>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H17" s="3">
-        <v>142500</v>
+        <v>738000</v>
       </c>
       <c r="I17" s="3">
-        <v>-21500</v>
+        <v>-111000</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1996,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>-31350</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -2005,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>63700</v>
+        <v>42800</v>
       </c>
       <c r="P17" s="3">
-        <v>-63700</v>
+        <v>-42800</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -2020,15 +2068,17 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>-8470</v>
+        <v>-41696</v>
       </c>
       <c r="U17" s="3">
-        <v>-3630</v>
+        <v>-21920</v>
       </c>
       <c r="V17" s="3">
-        <v>108900</v>
-      </c>
-      <c r="W17" s="3" t="s"/>
+        <v>532034</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
@@ -2036,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB17" s="3" t="s"/>
       <c r="AC17" s="3">
@@ -2057,20 +2107,20 @@
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s"/>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H18" s="3">
         <v>142500</v>
@@ -2094,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>63300</v>
+        <v>57700</v>
       </c>
       <c r="P18" s="3">
-        <v>-63300</v>
+        <v>-57700</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -2112,10 +2162,10 @@
         <v>-8470</v>
       </c>
       <c r="U18" s="3">
-        <v>-4840</v>
+        <v>-3840</v>
       </c>
       <c r="V18" s="3">
-        <v>107690</v>
+        <v>108690</v>
       </c>
       <c r="W18" s="3" t="s"/>
       <c r="X18" s="3">
@@ -2125,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AB18" s="3" t="s"/>
       <c r="AC18" s="3">
@@ -2146,26 +2196,26 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C19" s="3" t="s"/>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" s="3">
-        <v>570000</v>
+        <v>712500</v>
       </c>
       <c r="I19" s="3">
-        <v>-86000</v>
+        <v>-107500</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -2174,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>-30250</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
@@ -2183,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <v>112000</v>
+        <v>132500</v>
       </c>
       <c r="P19" s="3">
-        <v>-112000</v>
+        <v>-132500</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -2198,15 +2248,17 @@
         <v>0</v>
       </c>
       <c r="T19" s="3">
-        <v>-33880</v>
+        <v>-40233</v>
       </c>
       <c r="U19" s="3">
-        <v>-19360</v>
+        <v>-21151</v>
       </c>
       <c r="V19" s="3">
-        <v>430760</v>
-      </c>
-      <c r="W19" s="3" t="s"/>
+        <v>513366</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="X19" s="3">
         <v>0</v>
       </c>
@@ -2214,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AB19" s="3" t="s"/>
       <c r="AC19" s="3">
@@ -2235,26 +2287,26 @@
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s"/>
       <c r="D20" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H20" s="3">
-        <v>410000</v>
+        <v>246000</v>
       </c>
       <c r="I20" s="3">
-        <v>-68000</v>
+        <v>-37000</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -2263,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-10450</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2272,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>40400</v>
+        <v>20700</v>
       </c>
       <c r="P20" s="3">
-        <v>-40400</v>
+        <v>-20700</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -2287,15 +2339,17 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>-23940</v>
+        <v>-13899</v>
       </c>
       <c r="U20" s="3">
-        <v>-12586</v>
+        <v>-6751</v>
       </c>
       <c r="V20" s="3">
-        <v>305474</v>
-      </c>
-      <c r="W20" s="3" t="s"/>
+        <v>177900</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -2303,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB20" s="3" t="s"/>
       <c r="AC20" s="3">
@@ -2328,13 +2382,13 @@
       </c>
       <c r="C21" s="3" t="s"/>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>81</v>
@@ -2361,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>63700</v>
+        <v>63300</v>
       </c>
       <c r="P21" s="3">
-        <v>-63700</v>
+        <v>-63300</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -2392,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB21" s="3" t="s"/>
       <c r="AC21" s="3">
@@ -2420,19 +2474,19 @@
         <v>83</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>84</v>
       </c>
       <c r="H22" s="3">
-        <v>285000</v>
+        <v>142500</v>
       </c>
       <c r="I22" s="3">
-        <v>-43000</v>
+        <v>-21500</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -2441,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>-6050</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2450,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>30800</v>
+        <v>50100</v>
       </c>
       <c r="P22" s="3">
-        <v>-30800</v>
+        <v>-50100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -2465,15 +2519,17 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>-16940</v>
+        <v>-8047</v>
       </c>
       <c r="U22" s="3">
-        <v>-9680</v>
+        <v>-4598</v>
       </c>
       <c r="V22" s="3">
-        <v>215380</v>
-      </c>
-      <c r="W22" s="3" t="s"/>
+        <v>102305</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
@@ -2481,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB22" s="3" t="s"/>
       <c r="AC22" s="3">
@@ -2509,19 +2565,19 @@
         <v>86</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H23" s="3">
-        <v>142500</v>
+        <v>285000</v>
       </c>
       <c r="I23" s="3">
-        <v>-21500</v>
+        <v>-43000</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -2539,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>44100</v>
+        <v>30800</v>
       </c>
       <c r="P23" s="3">
-        <v>-44100</v>
+        <v>-30800</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -2554,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>-8470</v>
+        <v>-16940</v>
       </c>
       <c r="U23" s="3">
-        <v>-4840</v>
+        <v>-9680</v>
       </c>
       <c r="V23" s="3">
-        <v>107690</v>
+        <v>215380</v>
       </c>
       <c r="W23" s="3" t="s"/>
       <c r="X23" s="3">
@@ -2570,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB23" s="3" t="s"/>
       <c r="AC23" s="3">
@@ -2583,6 +2639,457 @@
         <v>0</v>
       </c>
       <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="3" t="s"/>
+      <c r="D24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="3">
+        <v>246000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>20700</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-14630</v>
+      </c>
+      <c r="U24" s="3">
+        <v>-7691</v>
+      </c>
+      <c r="V24" s="3">
+        <v>186679</v>
+      </c>
+      <c r="W24" s="3" t="s"/>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB24" s="3" t="s"/>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="3" t="s"/>
+      <c r="D25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="3">
+        <v>377300</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>-18865</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>26100</v>
+      </c>
+      <c r="P25" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>-25090</v>
+      </c>
+      <c r="U25" s="3">
+        <v>-13190</v>
+      </c>
+      <c r="V25" s="3">
+        <v>320155</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB25" s="3" t="s"/>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="3" t="s"/>
+      <c r="D26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="3">
+        <v>495900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-136900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>32200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-25130</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-14360</v>
+      </c>
+      <c r="V26" s="3">
+        <v>319510</v>
+      </c>
+      <c r="W26" s="3" t="s"/>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB26" s="3" t="s"/>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="3" t="s"/>
+      <c r="D27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>754600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-158600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>28400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-39634</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-20383</v>
+      </c>
+      <c r="V27" s="3">
+        <v>506183</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB27" s="3" t="s"/>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3" t="s"/>
+      <c r="D28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3">
+        <v>246000</v>
+      </c>
+      <c r="I28" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>-10450</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>20700</v>
+      </c>
+      <c r="P28" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>-13899</v>
+      </c>
+      <c r="U28" s="3">
+        <v>-7307</v>
+      </c>
+      <c r="V28" s="3">
+        <v>177344</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB28" s="3" t="s"/>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2602,7 +3109,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2636,7 +3143,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
@@ -2644,10 +3151,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2">
-        <v>-8470</v>
+        <v>-13899</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +3162,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2">
-        <v>-23874</v>
+        <v>-8047</v>
       </c>
     </row>
     <row r="5">
@@ -2666,10 +3173,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2">
-        <v>-14630</v>
+        <v>-16940</v>
       </c>
     </row>
     <row r="6">
@@ -2677,10 +3184,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
-        <v>-33880</v>
+        <v>-13899</v>
       </c>
     </row>
     <row r="7">
@@ -2688,7 +3195,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2">
         <v>-8470</v>
@@ -2699,10 +3206,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2">
-        <v>-8470</v>
+        <v>-40233</v>
       </c>
     </row>
     <row r="9">
@@ -2710,7 +3217,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2">
         <v>-8470</v>
@@ -2721,10 +3228,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2">
-        <v>-8470</v>
+        <v>-25090</v>
       </c>
     </row>
     <row r="11">
@@ -2732,10 +3239,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2">
-        <v>-16940</v>
+        <v>-39634</v>
       </c>
     </row>
     <row r="12">
@@ -2743,10 +3250,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2">
-        <v>-23940</v>
+        <v>-8047</v>
       </c>
     </row>
     <row r="13">
@@ -2754,10 +3261,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2">
-        <v>-16940</v>
+        <v>-8470</v>
       </c>
     </row>
     <row r="14">
@@ -2765,10 +3272,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2">
-        <v>-8470</v>
+        <v>-25130</v>
       </c>
     </row>
     <row r="15">
@@ -2776,10 +3283,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2">
-        <v>-8047</v>
+        <v>-8470</v>
       </c>
     </row>
     <row r="16">
@@ -2787,10 +3294,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2">
-        <v>-8047</v>
+        <v>-14630</v>
       </c>
     </row>
     <row r="17">
@@ -2798,10 +3305,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2">
-        <v>-8470</v>
+        <v>-8978</v>
       </c>
     </row>
     <row r="18">
@@ -2809,10 +3316,65 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
+        <v>-8047</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-61646</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-41696</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2">
         <v>-8470</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-8047</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-16093</v>
       </c>
     </row>
   </sheetData>
@@ -2855,7 +3417,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="true">
       <c r="A1" s="6" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B1" s="6" t="s"/>
       <c r="C1" s="6" t="s"/>
@@ -2899,32 +3461,32 @@
     </row>
     <row r="6" ht="18" customHeight="true">
       <c r="A6" s="6" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B6" s="6" t="s"/>
       <c r="C6" s="6" t="s"/>
       <c r="D6" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B7" s="10" t="s"/>
       <c r="C7" s="10" t="s"/>
       <c r="D7" s="11">
-        <v>3057950</v>
+        <v>5605735</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B8" s="12" t="s"/>
       <c r="C8" s="12" t="s"/>
       <c r="D8" s="13">
-        <v>3088000</v>
+        <v>5826300</v>
       </c>
     </row>
     <row r="9">
@@ -2933,7 +3495,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>3716900</v>
+        <v>6914100</v>
       </c>
       <c r="D9" s="2" t="s"/>
     </row>
@@ -2943,7 +3505,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>-628900</v>
+        <v>-1087800</v>
       </c>
       <c r="D10" s="2" t="s"/>
     </row>
@@ -2965,12 +3527,12 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B13" s="12" t="s"/>
       <c r="C13" s="12" t="s"/>
       <c r="D13" s="13">
-        <v>-30050</v>
+        <v>-220565</v>
       </c>
     </row>
     <row r="14">
@@ -2989,7 +3551,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="2">
-        <v>-30050</v>
+        <v>-220565</v>
       </c>
       <c r="D15" s="2" t="s"/>
     </row>
@@ -3011,17 +3573,17 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B18" s="10" t="s"/>
       <c r="C18" s="10" t="s"/>
       <c r="D18" s="11">
-        <v>-323168</v>
+        <v>-593743</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B19" s="12" t="s"/>
       <c r="C19" s="12" t="s"/>
@@ -3042,7 +3604,7 @@
     <row r="21">
       <c r="A21" s="2" t="s"/>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -3055,7 +3617,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>871000</v>
+        <v>1004700</v>
       </c>
       <c r="D22" s="2" t="s"/>
     </row>
@@ -3065,7 +3627,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>-871000</v>
+        <v>-1004700</v>
       </c>
       <c r="D23" s="2" t="s"/>
     </row>
@@ -3087,12 +3649,12 @@
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B26" s="12" t="s"/>
       <c r="C26" s="12" t="s"/>
       <c r="D26" s="13">
-        <v>-323168</v>
+        <v>-593743</v>
       </c>
     </row>
     <row r="27">
@@ -3121,7 +3683,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="2">
-        <v>-214058</v>
+        <v>-392406</v>
       </c>
       <c r="D29" s="2" t="s"/>
     </row>
@@ -3131,14 +3693,14 @@
         <v>28</v>
       </c>
       <c r="C30" s="2">
-        <v>-109110</v>
+        <v>-201337</v>
       </c>
       <c r="D30" s="2" t="s"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s"/>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -3154,12 +3716,12 @@
     <row r="33"/>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B34" s="14" t="s"/>
       <c r="C34" s="14" t="s"/>
       <c r="D34" s="15">
-        <v>2734782</v>
+        <v>5011992</v>
       </c>
     </row>
     <row r="35">
@@ -3170,7 +3732,7 @@
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B36" s="14" t="s"/>
       <c r="C36" s="14" t="s"/>
